--- a/data/list.xlsx
+++ b/data/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjsgu\Desktop\ReportProgram\2.genome\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hanwooGenomeReportPrograme\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064582E1-8C1C-48E6-82FA-DA4EED1C31DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83410AD4-21F2-43DE-9DBF-58A2726B51DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29325" yWindow="525" windowWidth="26310" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -360,9 +360,6 @@
     <t>002168651548</t>
   </si>
   <si>
-    <t>최영문</t>
-  </si>
-  <si>
     <t>김봉중</t>
   </si>
   <si>
@@ -629,6 +626,10 @@
   </si>
   <si>
     <t>E7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,12 +957,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2006596E-C1F0-4CFA-B036-85C215B186AE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D98"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -983,287 +981,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1274,52 +1272,52 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1330,80 +1328,80 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1414,63 +1412,63 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -1478,13 +1476,13 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1492,13 +1490,13 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -1506,13 +1504,13 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -1520,13 +1518,13 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -1534,13 +1532,13 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -1548,13 +1546,13 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -1562,13 +1560,13 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1576,13 +1574,13 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -1590,13 +1588,13 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -1604,13 +1602,13 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -1618,13 +1616,13 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -1638,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -1646,13 +1644,13 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -1660,13 +1658,13 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -1674,13 +1672,13 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -1688,13 +1686,13 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -1702,13 +1700,13 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -1716,13 +1714,13 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -1730,13 +1728,13 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -1744,13 +1742,13 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -1758,13 +1756,13 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -1772,13 +1770,13 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -1786,13 +1784,13 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -1800,13 +1798,13 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -1814,13 +1812,13 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -1834,12 +1832,12 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -1848,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -1856,13 +1854,13 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -1870,13 +1868,13 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -1884,13 +1882,13 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -1898,13 +1896,13 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -1912,13 +1910,13 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -1926,13 +1924,13 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -1940,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -1954,13 +1952,13 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -1968,13 +1966,13 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -1982,13 +1980,13 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -1996,13 +1994,13 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -2016,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -2024,13 +2022,13 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
@@ -2038,13 +2036,13 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -2052,13 +2050,13 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -2066,13 +2064,13 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -2080,13 +2078,13 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -2094,13 +2092,13 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -2108,13 +2106,13 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
@@ -2122,13 +2120,13 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -2136,13 +2134,13 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -2150,13 +2148,13 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -2164,13 +2162,13 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -2178,13 +2176,13 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -2192,13 +2190,13 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -2212,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -2220,13 +2218,13 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -2234,13 +2232,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -2248,13 +2246,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -2262,13 +2260,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -2276,13 +2274,13 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -2290,13 +2288,13 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -2304,13 +2302,13 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -2318,13 +2316,13 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -2332,23 +2330,17 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D98" xr:uid="{2006596E-C1F0-4CFA-B036-85C215B186AE}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="용채농장"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D98" xr:uid="{2006596E-C1F0-4CFA-B036-85C215B186AE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2367,13 +2359,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2381,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2392,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2403,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2414,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2425,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2436,7 +2428,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2447,7 +2439,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2458,7 +2450,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2469,7 +2461,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2480,7 +2472,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2491,7 +2483,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2502,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2513,7 +2505,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2524,7 +2516,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2535,7 +2527,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2546,7 +2538,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2557,7 +2549,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2568,7 +2560,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2579,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2590,7 +2582,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -2612,7 +2604,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -2623,7 +2615,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2634,7 +2626,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2656,7 +2648,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -2667,7 +2659,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2678,7 +2670,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -2689,7 +2681,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -2700,7 +2692,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -2722,7 +2714,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2733,7 +2725,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -2744,7 +2736,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -2755,7 +2747,7 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -2766,7 +2758,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -2777,7 +2769,7 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -2788,7 +2780,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -2799,7 +2791,7 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -2810,7 +2802,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -2821,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -2832,7 +2824,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -2843,7 +2835,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -2854,7 +2846,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -2865,7 +2857,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -2876,7 +2868,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -2898,7 +2890,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -2909,7 +2901,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -2920,7 +2912,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -2931,7 +2923,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -2942,7 +2934,7 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -2953,7 +2945,7 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -2964,7 +2956,7 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -2975,7 +2967,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -2986,7 +2978,7 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -2997,7 +2989,7 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -3008,7 +3000,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -3019,7 +3011,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -3030,7 +3022,7 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -3041,10 +3033,10 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -3052,7 +3044,7 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -3063,7 +3055,7 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -3074,7 +3066,7 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -3085,7 +3077,7 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -3096,7 +3088,7 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -3107,7 +3099,7 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -3118,7 +3110,7 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -3129,7 +3121,7 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -3140,7 +3132,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -3151,7 +3143,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -3162,7 +3154,7 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -3184,7 +3176,7 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -3195,7 +3187,7 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -3206,7 +3198,7 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -3217,7 +3209,7 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -3228,7 +3220,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -3239,7 +3231,7 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -3250,7 +3242,7 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -3261,7 +3253,7 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -3272,7 +3264,7 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -3283,7 +3275,7 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -3294,7 +3286,7 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -3305,7 +3297,7 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -3316,7 +3308,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -3327,10 +3319,10 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -3338,7 +3330,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -3349,7 +3341,7 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -3360,7 +3352,7 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -3371,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -3382,7 +3374,7 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -3393,7 +3385,7 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -3404,7 +3396,7 @@
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -3415,7 +3407,7 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -3426,7 +3418,7 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
